--- a/[[pak]]libraries/aircraft/大きさ目安.xlsx
+++ b/[[pak]]libraries/aircraft/大きさ目安.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takamaro\Dropbox\New Simutrans\[[pak]]libraries\aircraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Desktop\Takstrans\[[pak]]libraries\aircraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A6762E-10FD-410B-861B-5BDB548CC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="12240" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1246,7 +1258,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,15 +1508,15 @@
         <v>36.481716311050938</v>
       </c>
       <c r="E15">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F15" s="13">
         <f>POWER(テーブル4[[#This Row],[Size(m)]]/テーブル2[Size(m) max],テーブル2[Weight])*テーブル2[Horizontal Max(px)]*724/1024</f>
-        <v>45.25</v>
+        <v>37.674037434165577</v>
       </c>
       <c r="G15" s="13">
         <f>POWER(テーブル4[[#This Row],[Size(m)]]/テーブル2[Size(m) max],テーブル2[Weight])*テーブル2[Horizontal Max(px)]</f>
-        <v>64</v>
+        <v>53.284826426223134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1520,13 +1532,16 @@
         <f>テーブル1[[#This Row],[Horizontal(px)]]*724/1024</f>
         <v>37.858866200666917</v>
       </c>
+      <c r="E16">
+        <v>25.5</v>
+      </c>
       <c r="F16" s="13">
         <f>POWER(テーブル4[[#This Row],[Size(m)]]/テーブル2[Size(m) max],テーブル2[Weight])*テーブル2[Horizontal Max(px)]*724/1024</f>
-        <v>0</v>
+        <v>24.358320342058963</v>
       </c>
       <c r="G16" s="13">
         <f>POWER(テーブル4[[#This Row],[Size(m)]]/テーブル2[Size(m) max],テーブル2[Weight])*テーブル2[Horizontal Max(px)]</f>
-        <v>0</v>
+        <v>34.451547003133122</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">

--- a/[[pak]]libraries/aircraft/大きさ目安.xlsx
+++ b/[[pak]]libraries/aircraft/大きさ目安.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Desktop\Takstrans\[[pak]]libraries\aircraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A6762E-10FD-410B-861B-5BDB548CC838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697873B-DB99-4C9D-B665-F72FE361D467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -866,7 +866,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -897,11 +897,11 @@
       </c>
       <c r="C4" s="10">
         <f>B4*$B$2</f>
-        <v>15.20526224699857</v>
+        <v>20.124611797498108</v>
       </c>
       <c r="D4" s="10">
         <f>C4*SQRT(2)</f>
-        <v>21.50348808914498</v>
+        <v>28.460498941515418</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -915,11 +915,11 @@
       </c>
       <c r="C5" s="10">
         <f t="shared" ref="C5:C23" si="2">B5*$B$2</f>
-        <v>21.50348808914498</v>
+        <v>28.460498941515414</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ref="D5:D23" si="3">C5*SQRT(2)</f>
-        <v>30.410524493997144</v>
+        <v>40.249223594996216</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -933,11 +933,11 @@
       </c>
       <c r="C6" s="10">
         <f t="shared" si="2"/>
-        <v>26.336286754210434</v>
+        <v>34.856850115866756</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="3"/>
-        <v>37.245133910351299</v>
+        <v>49.295030175464959</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -951,11 +951,11 @@
       </c>
       <c r="C7" s="10">
         <f t="shared" si="2"/>
-        <v>30.410524493997141</v>
+        <v>40.249223594996216</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="3"/>
-        <v>43.00697617828996</v>
+        <v>56.920997883030836</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -969,11 +969,11 @@
       </c>
       <c r="C8" s="10">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="3"/>
-        <v>48.083261120685236</v>
+        <v>63.63961030678928</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -987,11 +987,11 @@
       </c>
       <c r="C9" s="10">
         <f t="shared" si="2"/>
-        <v>37.245133910351292</v>
+        <v>49.295030175464944</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="3"/>
-        <v>52.672573508420868</v>
+        <v>69.713700231733498</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1005,11 +1005,11 @@
       </c>
       <c r="C10" s="10">
         <f t="shared" si="2"/>
-        <v>40.229342525077385</v>
+        <v>53.244718047896541</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="3"/>
-        <v>56.892881804317135</v>
+        <v>75.299402388066795</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="C11" s="10">
         <f t="shared" si="2"/>
-        <v>43.00697617828996</v>
+        <v>56.920997883030829</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="3"/>
-        <v>60.821048987994288</v>
+        <v>80.498447189992433</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1041,11 +1041,11 @@
       </c>
       <c r="C12" s="10">
         <f t="shared" si="2"/>
-        <v>45.615786740995709</v>
+        <v>60.373835392494321</v>
       </c>
       <c r="D12" s="10">
         <f t="shared" si="3"/>
-        <v>64.510464267434941</v>
+        <v>85.381496824546247</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1059,11 +1059,11 @@
       </c>
       <c r="C13" s="10">
         <f t="shared" si="2"/>
-        <v>48.083261120685236</v>
+        <v>63.63961030678928</v>
       </c>
       <c r="D13" s="10">
         <f t="shared" si="3"/>
-        <v>68.000000000000014</v>
+        <v>90.000000000000014</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -1077,11 +1077,11 @@
       </c>
       <c r="C14" s="10">
         <f t="shared" si="2"/>
-        <v>50.430149712250511</v>
+        <v>66.745786383860974</v>
       </c>
       <c r="D14" s="10">
         <f t="shared" si="3"/>
-        <v>71.31900167557032</v>
+        <v>94.392796335313662</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
@@ -1095,11 +1095,11 @@
       </c>
       <c r="C15" s="10">
         <f t="shared" si="2"/>
-        <v>52.672573508420868</v>
+        <v>69.713700231733512</v>
       </c>
       <c r="D15" s="10">
         <f t="shared" si="3"/>
-        <v>74.490267820702599</v>
+        <v>98.590060350929917</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="C16" s="10">
         <f t="shared" si="2"/>
-        <v>54.823352688430141</v>
+        <v>72.560319734686956</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" si="3"/>
-        <v>77.531928906741399</v>
+        <v>102.61578825892244</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -1131,11 +1131,11 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="2"/>
-        <v>56.892881804317142</v>
+        <v>75.299402388066795</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="3"/>
-        <v>80.458685050154784</v>
+        <v>106.4894360957931</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -1149,11 +1149,11 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="2"/>
-        <v>58.889727457341827</v>
+        <v>77.94228634059948</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="3"/>
-        <v>83.282651254628064</v>
+        <v>110.22703842524302</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="C19" s="10">
         <f t="shared" si="2"/>
-        <v>60.821048987994281</v>
+        <v>80.498447189992433</v>
       </c>
       <c r="D19" s="10">
         <f t="shared" si="3"/>
-        <v>86.013952356579921</v>
+        <v>113.84199576606167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="C20" s="10">
         <f t="shared" si="2"/>
-        <v>62.692902309591638</v>
+        <v>82.975900115635994</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="3"/>
-        <v>88.661152710756028</v>
+        <v>117.3456432936477</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -1203,11 +1203,11 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="2"/>
-        <v>64.510464267434941</v>
+        <v>85.381496824546232</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="3"/>
-        <v>91.231573481991433</v>
+        <v>120.74767078498864</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
@@ -1221,11 +1221,11 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="2"/>
-        <v>66.278201544700948</v>
+        <v>87.721149103280666</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="3"/>
-        <v>93.731531514213501</v>
+        <v>124.05643876881199</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
@@ -1239,11 +1239,11 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="3"/>
-        <v>96.166522241370473</v>
+        <v>127.27922061357856</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
